--- a/tapestation/tape_metadata_tidy.xlsx
+++ b/tapestation/tape_metadata_tidy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/papers/OC_Figures/Old_Collections_Figures/tapestation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A253F854-D12A-054D-A9EC-8164732174F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E401383B-E3B6-1D48-83CB-F4A87F772D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36160" yWindow="1140" windowWidth="16340" windowHeight="19260" xr2:uid="{851DAE64-B0D7-BF40-BA4D-500F90711536}"/>
+    <workbookView xWindow="36160" yWindow="1140" windowWidth="31040" windowHeight="22860" xr2:uid="{851DAE64-B0D7-BF40-BA4D-500F90711536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="165">
   <si>
     <t>tape_id</t>
   </si>
@@ -342,18 +342,9 @@
     <t>BBDIV1550-12</t>
   </si>
   <si>
-    <t>d1</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
     <t>72WkDry_F_1</t>
   </si>
   <si>
-    <t>d3</t>
-  </si>
-  <si>
     <t>4WkFrozen_F_1</t>
   </si>
   <si>
@@ -384,12 +375,6 @@
     <t>72WkFrozen_F_1</t>
   </si>
   <si>
-    <t>d4</t>
-  </si>
-  <si>
-    <t>d5</t>
-  </si>
-  <si>
     <t>group</t>
   </si>
   <si>
@@ -400,6 +385,150 @@
   </si>
   <si>
     <t>Frozen</t>
+  </si>
+  <si>
+    <t>4WkDry_F_2</t>
+  </si>
+  <si>
+    <t>8WkDry_F_2</t>
+  </si>
+  <si>
+    <t>12WkDry_F_2</t>
+  </si>
+  <si>
+    <t>16WkDry_F_2</t>
+  </si>
+  <si>
+    <t>20WkDry_F_2</t>
+  </si>
+  <si>
+    <t>24WkDry_F_2</t>
+  </si>
+  <si>
+    <t>60WkDry_F_2</t>
+  </si>
+  <si>
+    <t>36WkDry_F_2</t>
+  </si>
+  <si>
+    <t>48WkDry_F_2</t>
+  </si>
+  <si>
+    <t>72WkDry_F_2</t>
+  </si>
+  <si>
+    <t>4WkFrozen_F_2</t>
+  </si>
+  <si>
+    <t>8WkFrozen_F_2</t>
+  </si>
+  <si>
+    <t>12WkFrozen_F_2</t>
+  </si>
+  <si>
+    <t>16WkFrozen_F_2</t>
+  </si>
+  <si>
+    <t>20WkFrozen_F_2</t>
+  </si>
+  <si>
+    <t>24WkFrozen_F_2</t>
+  </si>
+  <si>
+    <t>36WkFrozen_F_2</t>
+  </si>
+  <si>
+    <t>48WkFrozen_F_2</t>
+  </si>
+  <si>
+    <t>60WkFrozen_F_2</t>
+  </si>
+  <si>
+    <t>72WkFrozen_F_2</t>
+  </si>
+  <si>
+    <t>4WkDry_F_3</t>
+  </si>
+  <si>
+    <t>8WkDry_F_3</t>
+  </si>
+  <si>
+    <t>12WkDry_F_3</t>
+  </si>
+  <si>
+    <t>16WkDry_F_3</t>
+  </si>
+  <si>
+    <t>20WkDry_F_3</t>
+  </si>
+  <si>
+    <t>24WkDry_F_3</t>
+  </si>
+  <si>
+    <t>60WkDry_F_3</t>
+  </si>
+  <si>
+    <t>36WkDry_F_3</t>
+  </si>
+  <si>
+    <t>48WkDry_F_3</t>
+  </si>
+  <si>
+    <t>72WkDry_F_3</t>
+  </si>
+  <si>
+    <t>4WkFrozen_F_3</t>
+  </si>
+  <si>
+    <t>8WkFrozen_F_3</t>
+  </si>
+  <si>
+    <t>12WkFrozen_F_3</t>
+  </si>
+  <si>
+    <t>16WkFrozen_F_3</t>
+  </si>
+  <si>
+    <t>20WkFrozen_F_3</t>
+  </si>
+  <si>
+    <t>24WkFrozen_F_3</t>
+  </si>
+  <si>
+    <t>36WkFrozen_F_3</t>
+  </si>
+  <si>
+    <t>48WkFrozen_F_3</t>
+  </si>
+  <si>
+    <t>60WkFrozen_F_3</t>
+  </si>
+  <si>
+    <t>72WkFrozen_F_3</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>f3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>f5</t>
+  </si>
+  <si>
+    <t>f6</t>
+  </si>
+  <si>
+    <t>f7</t>
+  </si>
+  <si>
+    <t>f8</t>
   </si>
 </sst>
 </file>
@@ -443,143 +572,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEE8FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7DEFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9AFFBB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC8FFFE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCB9EF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB5EECF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB4C8EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE9FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD9C9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC3FFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -589,82 +592,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -979,113 +936,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE537483-C8D2-154B-A6FD-73857D1E0E13}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:C38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>2022</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="5">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>2022</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="5">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="5">
         <v>12</v>
       </c>
-      <c r="E4">
-        <v>2022</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="5">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="5">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>2022</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -1093,696 +1050,1513 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="5">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="5">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="5">
+        <v>60</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="5">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="5">
+        <v>48</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="5">
+        <v>72</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="3">
+    </row>
+    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1954</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1953</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1919</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1969</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1991</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1902</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1927</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2006</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>10</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2003</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1963</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3">
+        <v>13</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2011</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="3">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1908</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1004277</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1942</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1004278</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1915</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1004279</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3">
+        <v>17</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1896</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1004284</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="5">
+        <v>4</v>
+      </c>
+      <c r="E29" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="5">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="3">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="5">
+        <v>12</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="5">
+        <v>16</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="5">
+        <v>20</v>
+      </c>
+      <c r="E33" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="3">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="5">
+        <v>24</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="3">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="5">
+        <v>36</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="3">
+        <v>9</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="5">
+        <v>48</v>
+      </c>
+      <c r="E36" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="3">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="5">
+        <v>60</v>
+      </c>
+      <c r="E37" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="3">
+        <v>3</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="5">
+        <v>72</v>
+      </c>
+      <c r="E38" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="5">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4</v>
+      </c>
+      <c r="E39" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="5">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="5">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="5">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="5">
+        <v>12</v>
+      </c>
+      <c r="E41" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F41" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D6">
+    </row>
+    <row r="42" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="5">
+        <v>8</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="5">
+        <v>16</v>
+      </c>
+      <c r="E42" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="5">
+        <v>10</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="5">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>2022</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="E43" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="5">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="5">
+        <v>24</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="5">
+        <v>14</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="5">
+        <v>36</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="5">
+        <v>16</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="5">
+        <v>48</v>
+      </c>
+      <c r="E46" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="5">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="5">
+        <v>60</v>
+      </c>
+      <c r="E47" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="5">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="5">
+        <v>72</v>
+      </c>
+      <c r="E48" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49" s="5">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="5">
+        <v>4</v>
+      </c>
+      <c r="E49" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="5">
+        <v>4</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="5">
+        <v>8</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="5">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="5">
+        <v>12</v>
+      </c>
+      <c r="E51" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="5">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="5">
+        <v>16</v>
+      </c>
+      <c r="E52" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="C53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="5">
+        <v>20</v>
+      </c>
+      <c r="E53" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="5">
+        <v>12</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="5">
+        <v>24</v>
+      </c>
+      <c r="E54" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="5">
+        <v>14</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="5">
+        <v>36</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="5">
+        <v>16</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" s="5">
+        <v>48</v>
+      </c>
+      <c r="E56" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="5">
+        <v>6</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="5">
+        <v>60</v>
+      </c>
+      <c r="E57" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" s="5">
+        <v>8</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" s="5">
+        <v>72</v>
+      </c>
+      <c r="E58" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="5">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="5">
+        <v>4</v>
+      </c>
+      <c r="E59" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="5">
+        <v>5</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="5">
+        <v>8</v>
+      </c>
+      <c r="E60" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="5">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7">
+      <c r="C61" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="5">
+        <v>12</v>
+      </c>
+      <c r="E61" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="5">
+        <v>9</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="5">
+        <v>16</v>
+      </c>
+      <c r="E62" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" s="5">
+        <v>11</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" s="5">
+        <v>20</v>
+      </c>
+      <c r="E63" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="5">
+        <v>13</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="5">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>2022</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="E64" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="5">
+        <v>15</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="5">
+        <v>36</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="5">
+        <v>17</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="5">
+        <v>48</v>
+      </c>
+      <c r="E66" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="5">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="5">
+        <v>60</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="5">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="5">
+        <v>72</v>
+      </c>
+      <c r="E68" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="5">
+        <v>3</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="5">
+        <v>4</v>
+      </c>
+      <c r="E69" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="5">
+        <v>5</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="5">
+        <v>8</v>
+      </c>
+      <c r="E70" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B71" s="5">
+        <v>7</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="5">
+        <v>12</v>
+      </c>
+      <c r="E71" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" s="5">
+        <v>9</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="5">
+        <v>16</v>
+      </c>
+      <c r="E72" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="C73" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="5">
+        <v>20</v>
+      </c>
+      <c r="E73" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" s="5">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8">
+      <c r="C74" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" s="5">
+        <v>24</v>
+      </c>
+      <c r="E74" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="5">
+        <v>11</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="5">
+        <v>36</v>
+      </c>
+      <c r="E75" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="5">
+        <v>17</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" s="5">
+        <v>48</v>
+      </c>
+      <c r="E76" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="5">
+        <v>7</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="5">
         <v>60</v>
       </c>
-      <c r="E8">
-        <v>2022</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9">
-        <v>36</v>
-      </c>
-      <c r="E9">
-        <v>2022</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="10">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10">
-        <v>48</v>
-      </c>
-      <c r="E10">
-        <v>2022</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="17">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11">
+      <c r="E77" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="5">
+        <v>9</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="5">
         <v>72</v>
       </c>
-      <c r="E11">
-        <v>2022</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="13">
-        <v>3</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>2022</v>
-      </c>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>1954</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="15">
-        <v>1953</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>1919</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>1969</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="2">
-        <v>6</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17">
-        <v>1991</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2">
-        <v>7</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18">
-        <v>1902</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2">
-        <v>8</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>1927</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="24"/>
-    </row>
-    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2">
-        <v>9</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20">
-        <v>2006</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2">
-        <v>10</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21">
-        <v>2003</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="2">
-        <v>11</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22">
-        <v>1963</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="2">
-        <v>12</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23">
-        <v>2000</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="2">
-        <v>13</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24">
-        <v>2011</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2">
-        <v>14</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>1908</v>
-      </c>
-      <c r="F25" s="23">
-        <v>1004277</v>
-      </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="2">
-        <v>15</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26">
-        <v>1942</v>
-      </c>
-      <c r="F26" s="23">
-        <v>1004278</v>
-      </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="24"/>
-    </row>
-    <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2">
-        <v>16</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27">
-        <v>1915</v>
-      </c>
-      <c r="F27" s="23">
-        <v>1004279</v>
-      </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="24"/>
-    </row>
-    <row r="28" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="2">
-        <v>17</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28">
-        <v>1896</v>
-      </c>
-      <c r="F28" s="23">
-        <v>1004284</v>
-      </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="24"/>
-    </row>
-    <row r="29" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" s="14">
-        <v>2</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>2022</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="14">
-        <v>3</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="E30">
-        <v>2022</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="14">
-        <v>4</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>2022</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="14">
-        <v>5</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32">
-        <v>16</v>
-      </c>
-      <c r="E32">
-        <v>2022</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="14">
-        <v>6</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D33">
-        <v>20</v>
-      </c>
-      <c r="E33">
-        <v>2022</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="14">
-        <v>7</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D34">
-        <v>24</v>
-      </c>
-      <c r="E34">
-        <v>2022</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="14">
-        <v>8</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35">
-        <v>36</v>
-      </c>
-      <c r="E35">
-        <v>2022</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="14">
-        <v>9</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D36">
-        <v>48</v>
-      </c>
-      <c r="E36">
-        <v>2022</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37" s="14">
-        <v>10</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37">
-        <v>60</v>
-      </c>
-      <c r="E37">
-        <v>2022</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38" s="14">
-        <v>3</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38">
-        <v>72</v>
-      </c>
-      <c r="E38">
-        <v>2022</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>115</v>
+      <c r="E78" s="5">
+        <v>2022</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1799,1653 +2573,1653 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="16" customWidth="1"/>
-    <col min="2" max="2" width="18" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="16"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="16">
+      <c r="A2" s="1">
         <v>1004284</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="1">
         <v>1896</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="1">
         <v>4</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="1">
         <v>2.11</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="1">
         <v>1902</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="1">
         <v>152</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="1">
         <v>2.1</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="1">
         <v>2</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="1">
         <v>1004277</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="1">
         <v>1908</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="1">
         <v>54.6</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="1">
         <v>2.08</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="1">
         <v>1.81</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+      <c r="A5" s="1">
         <v>1004279</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="1">
         <v>1915</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="1">
         <v>84</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="1">
         <v>1.95</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="1">
         <v>2.46</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="A6" s="1">
         <v>1004280</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="1">
         <v>1915</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="1">
         <v>6.8</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="1">
         <v>1.99</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="1">
         <v>2.27</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+      <c r="A7" s="1">
         <v>1004281</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="1">
         <v>1915</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="1">
         <v>12.7</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="1">
         <v>1.97</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="A8" s="1">
         <v>1004282</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="1">
         <v>1915</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="1">
         <v>2.08</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="1">
         <v>1919</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="1">
         <v>1.51</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="1">
         <v>0.43</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="1">
         <v>1919</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="1">
         <v>21.6</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="1">
         <v>1.84</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="1">
         <v>1.77</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="1">
         <v>1919</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="1">
         <v>1.83</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="1">
         <v>1927</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="1">
         <v>21</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="1">
         <v>1.92</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="1">
         <v>2.02</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="A13" s="1">
         <v>1004283</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="1">
         <v>1930</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="1">
         <v>13.6</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="1">
         <v>2.08</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="1">
         <v>1.75</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K13" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="A14" s="1">
         <v>1004278</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="1">
         <v>1942</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="1">
         <v>1.9</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="1">
         <v>1.41</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="1">
         <v>1950</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="1">
         <v>0.95</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="1">
         <v>2.19</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="1">
         <v>1950</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="1">
         <v>0.24</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="1">
         <v>0.24</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="1">
         <v>1951</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="1">
         <v>1.38</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="1">
         <v>0.65</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="1">
         <v>1951</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="1">
         <v>1.49</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="1">
         <v>1.3</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="1">
         <v>1952</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="1">
         <v>0.95</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="1">
         <v>0.64</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K19" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="1">
         <v>1954</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="1">
         <v>1.94</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K20" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="1">
         <v>1963</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="16">
+      <c r="H21" s="1">
         <v>66.400000000000006</v>
       </c>
-      <c r="I21" s="16">
+      <c r="I21" s="1">
         <v>2.12</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21" s="1">
         <v>2.13</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="1">
         <v>1963</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="1">
         <v>24.4</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="1">
         <v>1.99</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="1">
         <v>1963</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="1">
         <v>84.6</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="1">
         <v>2.09</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="1">
         <v>1.77</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="1">
         <v>1963</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="1">
         <v>48</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="1">
         <v>1.53</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="1">
         <v>1968</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="1">
         <v>13</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="1">
         <v>1.69</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25" s="1">
         <v>0.88</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="1">
         <v>1969</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="1">
         <v>38.6</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="1">
         <v>2.12</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K26" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="1">
         <v>1991</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="1">
         <v>24.4</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="1">
         <v>1.89</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="1">
         <v>1.67</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="1">
         <v>2000</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="1">
         <v>55.4</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="1">
         <v>1.57</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="1">
         <v>2003</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="1">
         <v>71.2</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="1">
         <v>2.15</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="1">
         <v>2.29</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K29" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="1">
         <v>2003</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="1">
         <v>13.9</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="1">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="1">
         <v>1.71</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="1">
         <v>2003</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="1">
         <v>42</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="1">
         <v>2.04</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="1">
         <v>0.9</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="1">
         <v>2003</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="1">
         <v>120</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="1">
         <v>2.15</v>
       </c>
-      <c r="J32" s="16">
+      <c r="J32" s="1">
         <v>2.37</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K32" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="1">
         <v>2003</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="16" t="s">
+      <c r="F33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="1">
         <v>25.6</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="1">
         <v>2.1</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="1">
         <v>1.74</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="1">
         <v>2006</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="1">
         <v>2.23</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="1">
         <v>2006</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="1">
         <v>56.8</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="1">
         <v>2.08</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="1">
         <v>2.06</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="1">
         <v>2006</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="1">
         <v>1.91</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="1">
         <v>2</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="1">
         <v>2010</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="1">
         <v>1.73</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="1">
         <v>1.88</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="1">
         <v>2010</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="1">
         <v>17.8</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="1">
         <v>1.92</v>
       </c>
-      <c r="J38" s="16">
+      <c r="J38" s="1">
         <v>1.39</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K38" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="1">
         <v>1952</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="1">
         <v>0.68</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="1">
         <v>-4.05</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="1">
         <v>1952</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G40" s="16" t="s">
+      <c r="G40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="1">
         <v>0</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="1">
         <v>0</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K40" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="1">
         <v>1953</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F41" s="16" t="s">
+      <c r="F41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="16" t="s">
+      <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="16" t="s">
+      <c r="H41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="1">
         <v>1.2</v>
       </c>
-      <c r="J41" s="16">
+      <c r="J41" s="1">
         <v>-7</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K41" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="1">
         <v>1958</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F42" s="16" t="s">
+      <c r="F42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="1">
         <v>0.99</v>
       </c>
-      <c r="J42" s="16">
+      <c r="J42" s="1">
         <v>0.16</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K42" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="1">
         <v>1960</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="1">
         <v>1.18</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="1">
         <v>0.8</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="K43" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="1">
         <v>1965</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="16" t="s">
+      <c r="H44" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="1">
         <v>1.64</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="1">
         <v>1.76</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K44" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="1">
         <v>2000</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="1">
         <v>17.8</v>
       </c>
-      <c r="I45" s="16">
+      <c r="I45" s="1">
         <v>1.99</v>
       </c>
-      <c r="J45" s="16">
+      <c r="J45" s="1">
         <v>1.77</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="K45" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="1">
         <v>2011</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="1">
         <v>74.2</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="1">
         <v>2.13</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="1">
         <v>2011</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="1">
         <v>15.9</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="1">
         <v>1.98</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="1">
         <v>0.94</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="K47" s="1" t="s">
         <v>54</v>
       </c>
     </row>
